--- a/admission data.xlsx
+++ b/admission data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xandria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandria\Desktop\GitHub\Admission_Point\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -226,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.0000"/>
+    <numFmt numFmtId="187" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,11 +266,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2071</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2072</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2073</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2074</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2075</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2076</v>
       </c>
@@ -1646,74 +1646,61 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>2077</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
+    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>2078</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>2079</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>2080</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>2081</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>2082</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
+    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admission data.xlsx
+++ b/admission data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>รหัสคณะ</t>
   </si>
@@ -195,30 +195,6 @@
   </si>
   <si>
     <t>gat</t>
-  </si>
-  <si>
-    <t>pat1</t>
-  </si>
-  <si>
-    <t>pat2</t>
-  </si>
-  <si>
-    <t>pat3</t>
-  </si>
-  <si>
-    <t>pat4</t>
-  </si>
-  <si>
-    <t>pat5</t>
-  </si>
-  <si>
-    <t>pat6</t>
-  </si>
-  <si>
-    <t>pat7</t>
-  </si>
-  <si>
-    <t>onet</t>
   </si>
 </sst>
 </file>
@@ -553,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +542,7 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,35 +552,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2024</v>
       </c>
@@ -614,17 +563,8 @@
       <c r="C2" s="3">
         <v>19055.349999999999</v>
       </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2025</v>
       </c>
@@ -634,17 +574,8 @@
       <c r="C3" s="3">
         <v>17602.5</v>
       </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2026</v>
       </c>
@@ -654,17 +585,8 @@
       <c r="C4" s="3">
         <v>15965.9</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2027</v>
       </c>
@@ -674,17 +596,8 @@
       <c r="C5" s="3">
         <v>17904.45</v>
       </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2028</v>
       </c>
@@ -694,17 +607,8 @@
       <c r="C6" s="3">
         <v>18131.400000000001</v>
       </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2029</v>
       </c>
@@ -714,17 +618,8 @@
       <c r="C7" s="3">
         <v>17647.150000000001</v>
       </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2030</v>
       </c>
@@ -734,17 +629,8 @@
       <c r="C8" s="3">
         <v>15795.3</v>
       </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2031</v>
       </c>
@@ -754,17 +640,8 @@
       <c r="C9" s="3">
         <v>16556.5</v>
       </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2032</v>
       </c>
@@ -774,17 +651,8 @@
       <c r="C10" s="3">
         <v>18002.05</v>
       </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2033</v>
       </c>
@@ -794,17 +662,8 @@
       <c r="C11" s="3">
         <v>17737.5</v>
       </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2034</v>
       </c>
@@ -814,17 +673,8 @@
       <c r="C12" s="3">
         <v>16298.65</v>
       </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2035</v>
       </c>
@@ -834,17 +684,8 @@
       <c r="C13" s="3">
         <v>16861.95</v>
       </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2036</v>
       </c>
@@ -854,17 +695,8 @@
       <c r="C14" s="3">
         <v>17148.75</v>
       </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2037</v>
       </c>
@@ -874,17 +706,8 @@
       <c r="C15" s="3">
         <v>16302.95</v>
       </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2038</v>
       </c>
@@ -894,17 +717,8 @@
       <c r="C16" s="3">
         <v>17170.7</v>
       </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2039</v>
       </c>
@@ -914,17 +728,8 @@
       <c r="C17" s="3">
         <v>16646.25</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2040</v>
       </c>
@@ -934,17 +739,8 @@
       <c r="C18" s="3">
         <v>18353.75</v>
       </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2041</v>
       </c>
@@ -954,17 +750,8 @@
       <c r="C19" s="3">
         <v>17175.7</v>
       </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2042</v>
       </c>
@@ -974,17 +761,8 @@
       <c r="C20" s="3">
         <v>17499.55</v>
       </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2043</v>
       </c>
@@ -994,14 +772,8 @@
       <c r="C21" s="3">
         <v>16876.95</v>
       </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2044</v>
       </c>
@@ -1011,11 +783,8 @@
       <c r="C22" s="3">
         <v>19904.45</v>
       </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2045</v>
       </c>
@@ -1025,17 +794,8 @@
       <c r="C23" s="3">
         <v>14999.45</v>
       </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2046</v>
       </c>
@@ -1045,17 +805,8 @@
       <c r="C24" s="3">
         <v>15811.25</v>
       </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2047</v>
       </c>
@@ -1065,17 +816,8 @@
       <c r="C25" s="3">
         <v>16136.3</v>
       </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2048</v>
       </c>
@@ -1085,17 +827,8 @@
       <c r="C26" s="3">
         <v>15420</v>
       </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2049</v>
       </c>
@@ -1105,17 +838,8 @@
       <c r="C27" s="3">
         <v>13261</v>
       </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="I27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2050</v>
       </c>
@@ -1125,17 +849,8 @@
       <c r="C28" s="3">
         <v>8968.25</v>
       </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2051</v>
       </c>
@@ -1145,17 +860,8 @@
       <c r="C29" s="3">
         <v>12505.35</v>
       </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2052</v>
       </c>
@@ -1165,17 +871,8 @@
       <c r="C30" s="3">
         <v>11939.35</v>
       </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2053</v>
       </c>
@@ -1185,17 +882,8 @@
       <c r="C31" s="3">
         <v>11702.6</v>
       </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2054</v>
       </c>
@@ -1205,17 +893,8 @@
       <c r="C32" s="3">
         <v>12400</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2055</v>
       </c>
@@ -1225,17 +904,8 @@
       <c r="C33" s="3">
         <v>13133.2</v>
       </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2056</v>
       </c>
@@ -1245,17 +915,8 @@
       <c r="C34" s="3">
         <v>13839.35</v>
       </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2057</v>
       </c>
@@ -1265,17 +926,8 @@
       <c r="C35" s="3">
         <v>14271.3</v>
       </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2058</v>
       </c>
@@ -1285,17 +937,8 @@
       <c r="C36" s="3">
         <v>14277.55</v>
       </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2059</v>
       </c>
@@ -1305,17 +948,8 @@
       <c r="C37" s="3">
         <v>13933.8</v>
       </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2060</v>
       </c>
@@ -1325,17 +959,8 @@
       <c r="C38" s="3">
         <v>11243.2</v>
       </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2061</v>
       </c>
@@ -1345,17 +970,8 @@
       <c r="C39" s="3">
         <v>13724.5</v>
       </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2062</v>
       </c>
@@ -1365,17 +981,8 @@
       <c r="C40" s="3">
         <v>13213.2</v>
       </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2063</v>
       </c>
@@ -1385,17 +992,8 @@
       <c r="C41" s="3">
         <v>12953.25</v>
       </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2064</v>
       </c>
@@ -1405,17 +1003,8 @@
       <c r="C42" s="3">
         <v>14944.5</v>
       </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2065</v>
       </c>
@@ -1425,17 +1014,8 @@
       <c r="C43" s="3">
         <v>13168.8</v>
       </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2066</v>
       </c>
@@ -1445,17 +1025,8 @@
       <c r="C44" s="3">
         <v>13852.55</v>
       </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2067</v>
       </c>
@@ -1465,17 +1036,8 @@
       <c r="C45" s="3">
         <v>14337.55</v>
       </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2068</v>
       </c>
@@ -1485,17 +1047,8 @@
       <c r="C46" s="3">
         <v>17757.849999999999</v>
       </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="F46">
-        <v>15</v>
-      </c>
-      <c r="G46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2069</v>
       </c>
@@ -1505,14 +1058,8 @@
       <c r="C47" s="3">
         <v>15257.5</v>
       </c>
-      <c r="D47">
-        <v>30</v>
-      </c>
-      <c r="E47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2070</v>
       </c>
@@ -1522,14 +1069,8 @@
       <c r="C48" s="3">
         <v>15497.45</v>
       </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2071</v>
       </c>
@@ -1539,14 +1080,8 @@
       <c r="C49" s="3">
         <v>15943.2</v>
       </c>
-      <c r="D49">
-        <v>30</v>
-      </c>
-      <c r="E49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2072</v>
       </c>
@@ -1556,17 +1091,8 @@
       <c r="C50" s="3">
         <v>10783.2</v>
       </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2073</v>
       </c>
@@ -1576,17 +1102,8 @@
       <c r="C51" s="3">
         <v>11013.2</v>
       </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2074</v>
       </c>
@@ -1596,17 +1113,8 @@
       <c r="C52" s="3">
         <v>9789.4</v>
       </c>
-      <c r="D52">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2075</v>
       </c>
@@ -1616,17 +1124,8 @@
       <c r="C53" s="3">
         <v>11161.25</v>
       </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>15</v>
-      </c>
-      <c r="G53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2076</v>
       </c>
@@ -1636,68 +1135,35 @@
       <c r="C54" s="3">
         <v>10295.700000000001</v>
       </c>
-      <c r="D54">
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <v>15</v>
-      </c>
-      <c r="G54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58"/>
     </row>
-    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60"/>
